--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -11,9 +11,10 @@
     <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$H$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$H$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -99,7 +100,7 @@
     <t xml:space="preserve">UNIDEB_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Instrument Cluster Sprint 1</t>
+    <t xml:space="preserve">Instrument Cluster Team 1, Sprint 1</t>
   </si>
   <si>
     <t xml:space="preserve">https://trello.com/c/ymCPlDdr/5-rd-instrument-cluster</t>
@@ -482,7 +483,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -529,6 +530,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -634,7 +639,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,7 +769,7 @@
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -919,7 +924,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H12"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -11,10 +11,11 @@
     <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$H$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$H$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Requirement!$A$2:$H$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Requirement!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t xml:space="preserve">UNIDEB Requirements</t>
   </si>
@@ -104,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://trello.com/c/ymCPlDdr/5-rd-instrument-cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following 6 requirements are needed from Team1 for Sprint1</t>
   </si>
   <si>
     <t xml:space="preserve">UNIDEB_5</t>
@@ -636,10 +640,10 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,16 +788,19 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -810,13 +817,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -833,13 +840,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -856,13 +863,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -879,13 +886,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -902,13 +909,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -924,7 +931,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H12"/>
+  <autoFilter ref="A2:H2"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>

--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="62">
   <si>
     <t>UNIDEB Requirements</t>
   </si>
@@ -167,27 +167,6 @@
     <t>Turning on and off emergency indicator</t>
   </si>
   <si>
-    <t>ACC enabling and disabling</t>
-  </si>
-  <si>
-    <t>ACC set wehicle speed</t>
-  </si>
-  <si>
-    <t>ACC set safety distance</t>
-  </si>
-  <si>
-    <t>TSR enabling and disabling</t>
-  </si>
-  <si>
-    <t>PP enabling and disabling</t>
-  </si>
-  <si>
-    <t>PP initiate maneuver</t>
-  </si>
-  <si>
-    <t>LKS enabling and disabling</t>
-  </si>
-  <si>
     <t>Changing between PRND gears</t>
   </si>
   <si>
@@ -203,9 +182,6 @@
     <t>Turning the headlights on and off</t>
   </si>
   <si>
-    <t>There is no need to enter an input value for this, when enabling this feature, current speed will be held</t>
-  </si>
-  <si>
     <t>15° increments for both left and right</t>
   </si>
   <si>
@@ -237,27 +213,6 @@
   </si>
   <si>
     <t>UNIDEB_19</t>
-  </si>
-  <si>
-    <t>UNIDEB_20</t>
-  </si>
-  <si>
-    <t>UNIDEB_21</t>
-  </si>
-  <si>
-    <t>UNIDEB_22</t>
-  </si>
-  <si>
-    <t>UNIDEB_23</t>
-  </si>
-  <si>
-    <t>UNIDEB_24</t>
-  </si>
-  <si>
-    <t>UNIDEB_25</t>
-  </si>
-  <si>
-    <t>UNIDEB_26</t>
   </si>
   <si>
     <t>Handling the inputs from the driver</t>
@@ -435,9 +390,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -469,6 +421,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -847,678 +802,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK28"/>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2"/>
-    <col min="2" max="2" width="7.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="98.28515625" style="3" customWidth="1"/>
-    <col min="9" max="1025" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="98.28515625" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\bosch\UniDeb2017-1\UniDebAutomatedCar\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GH\UniDeb2017-1\UniDebAutomatedCar\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,10 +15,10 @@
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Requirement!$A$2:$H$12</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Requirement!$A$2:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Requirement!$A$2:$H$12</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Requirement!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Requirement!$A$2:$I$12</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Requirement!$A$2:$I$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Requirement!$A$2:$I$12</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Requirement!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
   <si>
     <t>UNIDEB Requirements</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>UNIDEB_24</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>HMI</t>
   </si>
 </sst>
 </file>
@@ -412,11 +421,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -448,6 +454,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -798,626 +810,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK26"/>
+  <dimension ref="A1:AML26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="98.28515625" style="3" customWidth="1"/>
-    <col min="9" max="1025" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="98.28515625" style="2" customWidth="1"/>
+    <col min="10" max="1026" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H12"/>
+  <autoFilter ref="A2:I12"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>

--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
   <si>
     <t>UNIDEB Requirements</t>
   </si>
@@ -249,6 +249,51 @@
   </si>
   <si>
     <t>HMI</t>
+  </si>
+  <si>
+    <t>VISU</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/RpCLefE2/16-rd-visualisation</t>
+  </si>
+  <si>
+    <t>UNIDEB_25</t>
+  </si>
+  <si>
+    <t>UNIDEB_26</t>
+  </si>
+  <si>
+    <t>UNIDEB_27</t>
+  </si>
+  <si>
+    <t>UNIDEB_28</t>
+  </si>
+  <si>
+    <t>Visualisation of court window</t>
+  </si>
+  <si>
+    <t>The window displaying the court shall display the whole map (background bitmap).</t>
+  </si>
+  <si>
+    <t>The window should be resizable.</t>
+  </si>
+  <si>
+    <t>Blank area should be filled with solid (default) color.</t>
+  </si>
+  <si>
+    <t>At start up, the window should be initialized with the window size of 800x600 px.</t>
+  </si>
+  <si>
+    <t>UNIDEB_29</t>
+  </si>
+  <si>
+    <t>UNIDEB_30</t>
+  </si>
+  <si>
+    <t>The court (map) shall keep its ratio in the window, but fit to the window (in larger dimension of the map).</t>
   </si>
 </sst>
 </file>
@@ -454,11 +499,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -810,11 +855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML26"/>
+  <dimension ref="A1:AML32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,17 +877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -941,7 +986,7 @@
       <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1500,6 +1545,162 @@
         <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GH\UniDeb2017-1\UniDebAutomatedCar\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\school\bosch\gitrepo\UniDebAutomatedCar\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="138">
   <si>
     <t>UNIDEB Requirements</t>
   </si>
@@ -294,6 +294,162 @@
   </si>
   <si>
     <t>The court (map) shall keep its ratio in the window, but fit to the window (in larger dimension of the map).</t>
+  </si>
+  <si>
+    <t>Powertrain System RD Team 2, Sprint 1</t>
+  </si>
+  <si>
+    <t>I will use the abbreviation PS for Powertrain System</t>
+  </si>
+  <si>
+    <t>When the PS receive a Gear position signal (id 7) the value shoud be saved (if the following conditions meet) and from then it shall be deemed that the car is in that gear.</t>
+  </si>
+  <si>
+    <t>If the car's speed is 0 km/h then the saveable gear positions are: P, R, N, D (for the meaning of saveable see the requirement above)</t>
+  </si>
+  <si>
+    <t>If the car's speed is bigger than 0 km/h forwards ( so the car is moving forward direction) then the only saveable gear positions are N and D</t>
+  </si>
+  <si>
+    <t>Every time if the received gear position signal's value is equals to the currently saved one (eg the driver pressed D twice or more consequently) then the signal shall not take effect on the gear positions</t>
+  </si>
+  <si>
+    <t>If the car's speed is bigger than 0 km/h backwards (so the car is moving bacward direction) then the only saveable gear positions are N and R</t>
+  </si>
+  <si>
+    <t>If the PS receive a Headlight signal (id  10) then it should save the received value.</t>
+  </si>
+  <si>
+    <t>The default value of the Headlight shall be false (so by default, the headlights are turned off)</t>
+  </si>
+  <si>
+    <t>The default value of the Gear position shall be P (so at the beginning of the application the car should be in P gear)</t>
+  </si>
+  <si>
+    <t>The default value of the Steering wheel angle shall be 0°</t>
+  </si>
+  <si>
+    <t>When the PS receive a Steering wheel angle signal (id 6) then the received value should be added to the saved one until it reches the minimum (-720°) or the maximum (720°) value. When the value after the addition exceeds the minimum value, the value should be the minimum. When the value after the addition exceeds the maximum value, the value shoud be the maximum.</t>
+  </si>
+  <si>
+    <t>The default value of the Indicator shall be 0 (NONE) at the beginning of the application</t>
+  </si>
+  <si>
+    <t>When the PS receive an Indicator signal (id 3) the logical value shoud be saved (if the following conditions meet)</t>
+  </si>
+  <si>
+    <t>Every time if the received Indicator signal's value is equals to the currently saved one (eg the currently saved is 1 (RIGHT) and the received is also 1 (RIGHT) ) then the signal shall not take effect on the indicator's saved value (nothing should happen)</t>
+  </si>
+  <si>
+    <t>If the PS receive an Indicator signal with the value of 1 (RIGHT) the right indicator should and only the right should start to blink (with 60Hz) and the left indicator shall be turned off.</t>
+  </si>
+  <si>
+    <t>If the PS receive an Indicator signal with the value of 2 (LEFT) the left indicator should and only the ledt should start to blink (with 60Hz) and the right indicator shall be turned off.</t>
+  </si>
+  <si>
+    <t>If the PS receive an Indicator signal with the value of 0 (NONE) then both indicators shall be turned off (it should not blink)</t>
+  </si>
+  <si>
+    <t>If the PS receive an Indicator signal  with the value of 3 (EMERGENCY) both left and right indicators should start to blink in synchronized (both turn on and off at the same time while blinking) (with 60Hz)</t>
+  </si>
+  <si>
+    <t>If the PS receive a Gas pedal position signal (id 7) and the car is in P gear (see above) then the received signal should not take any effect.</t>
+  </si>
+  <si>
+    <t>If the PS receive a Gas pedal position signal and the car is in N gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9)</t>
+  </si>
+  <si>
+    <t>If the PS receive a Gas pedal position signal and the car is in D gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
+Based on the saved steering wheel angle the car should start to accelerate with increasing the speed of the car to forward direction and this should be done by calculating the car position x and y values, the car angle value and the car's speed and sending these values by signals to the VirtualFunctionBus
+The acceleration should continue while receiving the signal and when the signal is not received anymore, the acceleration should stop and the car should gradually slow down until it reaches the speed of 0 km/h.
+The car's speed should not exceed the maximum of 120 km/h</t>
+  </si>
+  <si>
+    <t>If the PS receive a Gas pedal position signal and the car is in R gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
+Based on the saved steering wheel angle the car should start to accelerate with increasing the speed of the car to bacward direction and this should be done by calculating the car position x and y values, the car angle value and the car's speed and sending these values by signals to the VirtualFunctionBus
+The acceleration should continue while receiving the signal and when the signal is not received anymore, the acceleration should stop and the car should gradually slow down until it reaches the speed of 0 km/h.
+The car's speed should not exceed the maximum of 120 km/h</t>
+  </si>
+  <si>
+    <t>If the PS receive a Brake pedal position signal (id 5) and the car's speed is bigger than 0 km/h then the car's speed should be decreased by the third of the current speed until it reaches the 0 km/h speed. If the car's speed is 0 km/h then the brake pedal position signal should not take any effect.</t>
+  </si>
+  <si>
+    <t>UNIDEB_31</t>
+  </si>
+  <si>
+    <t>UNIDEB_32</t>
+  </si>
+  <si>
+    <t>UNIDEB_33</t>
+  </si>
+  <si>
+    <t>UNIDEB_34</t>
+  </si>
+  <si>
+    <t>UNIDEB_35</t>
+  </si>
+  <si>
+    <t>UNIDEB_36</t>
+  </si>
+  <si>
+    <t>UNIDEB_37</t>
+  </si>
+  <si>
+    <t>UNIDEB_38</t>
+  </si>
+  <si>
+    <t>UNIDEB_39</t>
+  </si>
+  <si>
+    <t>UNIDEB_40</t>
+  </si>
+  <si>
+    <t>UNIDEB_41</t>
+  </si>
+  <si>
+    <t>UNIDEB_42</t>
+  </si>
+  <si>
+    <t>UNIDEB_43</t>
+  </si>
+  <si>
+    <t>UNIDEB_44</t>
+  </si>
+  <si>
+    <t>UNIDEB_45</t>
+  </si>
+  <si>
+    <t>UNIDEB_46</t>
+  </si>
+  <si>
+    <t>UNIDEB_47</t>
+  </si>
+  <si>
+    <t>UNIDEB_48</t>
+  </si>
+  <si>
+    <t>UNIDEB_49</t>
+  </si>
+  <si>
+    <t>UNIDEB_50</t>
+  </si>
+  <si>
+    <t>UNIDEB_51</t>
+  </si>
+  <si>
+    <t>UNIDEB_52</t>
+  </si>
+  <si>
+    <t>UNIDEB_53</t>
+  </si>
+  <si>
+    <t>UNIDEB_54</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/htzBlck2/6-rd-powertrain-system</t>
+  </si>
+  <si>
+    <t>Powertrain System</t>
   </si>
 </sst>
 </file>
@@ -511,8 +667,36 @@
     <cellStyle name="Magyarázó szöveg" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -855,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML32"/>
+  <dimension ref="A1:AML56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,6 +1888,630 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:I12"/>
   <mergeCells count="1">

--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$I$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Requirement!$A$2:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="169">
   <si>
     <t xml:space="preserve">UNIDEB Requirements</t>
   </si>
@@ -447,6 +448,101 @@
   </si>
   <si>
     <t xml:space="preserve">If the PS receive a Brake pedal position signal (id 5) and the car's speed is bigger than 0 km/h then the car's speed should be decreased by the third of the current speed until it reaches the 0 km/h speed. If the car's speed is 0 km/h then the brake pedal position signal should not take any effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radar Sensor Requirements for Sprint2 (Team1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/vRSewHge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radar Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should be able to detect up to 5 objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should be able to filter out non relevant objects if there are too many objects in the filed of view of the sensor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should be able to detect the following objects in the virtual world: (car,  pedestrian, cyclist, tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should be configurable. The default sensor configuration should be:
+Sensor range: 20-250m
+Sensor field of view: 10-85 degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should be able to calculate the longitudinal relative velocity X of a dynamic object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should send the Longitudinal VRX Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 11).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should be able to calculate the longitudinal distance from ego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should send the Longitudinal EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 12).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should be able to calculate the lateral relative velocity Y of a dynamic object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should send the Lateral VRY Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 13).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should be able to calculate the lateral distance from ego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should send the Lateral EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 14).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should send the Object Size of a detected object via (Signal ID 15).</t>
   </si>
 </sst>
 </file>
@@ -468,19 +564,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
@@ -588,18 +681,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -807,7 +900,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -862,6 +955,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -970,12 +1067,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -983,13 +1080,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="81.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="49.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="98.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="3" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2444,8 +2541,372 @@
         <v>15</v>
       </c>
     </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="32.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I12"/>
+  <autoFilter ref="A2:I70"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>

--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -580,43 +580,43 @@
     <t>The camera should recognise up to 5 traffic signs. The order of the detected signs are the distances from the car so if there are already 5 recognised traffic signs in the field of view, and a sixth sign appears in the view field and it is also can be recognised, then the furthermost traffic sign should be ignored.</t>
   </si>
   <si>
+    <t xml:space="preserve">Traffic sign meaning signal values: </t>
+  </si>
+  <si>
+    <t>The traffic signs that should be recognised is in the above picture. If there is another traffic sign in the view field which is not in the picture then it should be ignored.</t>
+  </si>
+  <si>
+    <t>UNIDEB_70</t>
+  </si>
+  <si>
+    <t>UNIDEB_71</t>
+  </si>
+  <si>
+    <t>UNIDEB_72</t>
+  </si>
+  <si>
+    <t>UNIDEB_73</t>
+  </si>
+  <si>
+    <t>UNIDEB_74</t>
+  </si>
+  <si>
+    <t>UNIDEB_75</t>
+  </si>
+  <si>
+    <t>UNIDEB_76</t>
+  </si>
+  <si>
+    <t>UNIDEB_77</t>
+  </si>
+  <si>
+    <t>UNIDEB_78</t>
+  </si>
+  <si>
     <t>If the camera recognises a traffic sign, three signals should be sent to the Communication Bus:
-Longitudinal EGO (ID 12) with the value of the longitudinal distance of the sign from ego
-Lateral EGO (ID 14) with the value of the lateral distance of the sign from ego
+Longitudinal EGO (ID 18) with the value of the longitudinal distance of the sign from ego
+Lateral EGO (ID 17) with the value of the lateral distance of the sign from ego
 Traffic sign meaning (ID 16) with the appropriate value that represents the traffic sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic sign meaning signal values: </t>
-  </si>
-  <si>
-    <t>The traffic signs that should be recognised is in the above picture. If there is another traffic sign in the view field which is not in the picture then it should be ignored.</t>
-  </si>
-  <si>
-    <t>UNIDEB_70</t>
-  </si>
-  <si>
-    <t>UNIDEB_71</t>
-  </si>
-  <si>
-    <t>UNIDEB_72</t>
-  </si>
-  <si>
-    <t>UNIDEB_73</t>
-  </si>
-  <si>
-    <t>UNIDEB_74</t>
-  </si>
-  <si>
-    <t>UNIDEB_75</t>
-  </si>
-  <si>
-    <t>UNIDEB_76</t>
-  </si>
-  <si>
-    <t>UNIDEB_77</t>
-  </si>
-  <si>
-    <t>UNIDEB_78</t>
   </si>
 </sst>
 </file>
@@ -805,9 +805,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -850,6 +847,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1281,2097 +1281,2097 @@
   <dimension ref="A1:AMK104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
+      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="98.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="98.28515625" style="2" customWidth="1"/>
+    <col min="10" max="1025" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="G37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="G43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="G44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="D45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="G46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="D47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="2" t="s">
+      <c r="G47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="G48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="G50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="G51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="G52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="48.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="G53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="143.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="G54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="G55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="G56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="D65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="2" t="s">
+      <c r="G71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="2" t="s">
+      <c r="G73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="G74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="B75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="2" t="s">
+      <c r="G75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="G79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="2" t="s">
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F104" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="G104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>142</v>
       </c>
     </row>

--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\school\bosch\gitrepo\UniDebAutomatedCar\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Requirement" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$I$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$I$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Requirement!$A$2:$I$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Requirement!$A$2:$I$12</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Requirement!$A$2:$I$12</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Requirement!$A$2:$I$12</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Requirement!$A$2:$I$2</definedName>
+    <definedName name="_FilterDatabase_1" localSheetId="0">Requirement!$A$2:$I$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,531 +31,599 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="169">
-  <si>
-    <t xml:space="preserve">UNIDEB Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Req ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticket ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned For</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the first chapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.a.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is only an info, this shuld not be implemented!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a requirement, the point should be realized!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trello.com/c/I705RNQO/1-demo-task-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Cluster Team 1, Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trello.com/c/ymCPlDdr/5-rd-instrument-cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The following 6 requirements are needed from Team1 for Sprint1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphical indicator of the steering wheel that is controlled by the Steering Wheel Angle (Signal ID 6*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphical indicator of the vehicle speed controlled by the Vehicle Speed (Signal ID 8*)  (analogue speedometer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphical indicator of the motor rotation speed controlled by the Rotation Speed (Signal ID 9*) (analogue tachometer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphical indicators for the turn signals controlled by the Indicator (Signal ID 3*) (icons)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphical indicator for the headlight controlled by the Headlight (Signal ID 10*) (icon)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphical indicator for the gear position controlled by the Gear Position (Signal ID 7*) (icons)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Machine Interface Team 2, Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trello.com/c/cuf7QmPD/7-rd-hmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handling the inputs from the driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Driver inputs will be simulated with the keyboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the P keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the R keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the N keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the D keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the L keyboard key is pressed by the driver, a Headlight signal (id 10) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be TRUE). If the last sent memorized value is TRUE then the currently sent signal value will be FALSE. If the last sent memorized value is FALSE (or there is no last sent memorized value) then the sent signal will be TRUE.  This value needs to be tracked inside the HMI system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="191">
+  <si>
+    <t>UNIDEB Requirements</t>
+  </si>
+  <si>
+    <t>Req ID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ticket ID</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Planned For</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>UNIDEB_1</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>This is the first chapter</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>UNIDEB_2</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>This is only an info, this shuld not be implemented!</t>
+  </si>
+  <si>
+    <t>UNIDEB_3</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>This is a requirement, the point should be realized!</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/I705RNQO/1-demo-task-1</t>
+  </si>
+  <si>
+    <t>UNIDEB_4</t>
+  </si>
+  <si>
+    <t>Instrument Cluster Team 1, Sprint 1</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/ymCPlDdr/5-rd-instrument-cluster</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>The following 6 requirements are needed from Team1 for Sprint1</t>
+  </si>
+  <si>
+    <t>UNIDEB_5</t>
+  </si>
+  <si>
+    <t>Graphical indicator of the steering wheel that is controlled by the Steering Wheel Angle (Signal ID 6*)</t>
+  </si>
+  <si>
+    <t>UNIDEB_6</t>
+  </si>
+  <si>
+    <t>Graphical indicator of the vehicle speed controlled by the Vehicle Speed (Signal ID 8*)  (analogue speedometer)</t>
+  </si>
+  <si>
+    <t>UNIDEB_7</t>
+  </si>
+  <si>
+    <t>Graphical indicator of the motor rotation speed controlled by the Rotation Speed (Signal ID 9*) (analogue tachometer)</t>
+  </si>
+  <si>
+    <t>UNIDEB_8</t>
+  </si>
+  <si>
+    <t>Graphical indicators for the turn signals controlled by the Indicator (Signal ID 3*) (icons)</t>
+  </si>
+  <si>
+    <t>UNIDEB_9</t>
+  </si>
+  <si>
+    <t>Graphical indicator for the headlight controlled by the Headlight (Signal ID 10*) (icon)</t>
+  </si>
+  <si>
+    <t>UNIDEB_10</t>
+  </si>
+  <si>
+    <t>Graphical indicator for the gear position controlled by the Gear Position (Signal ID 7*) (icons)</t>
+  </si>
+  <si>
+    <t>UNIDEB_11</t>
+  </si>
+  <si>
+    <t>Human Machine Interface Team 2, Sprint 1</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/cuf7QmPD/7-rd-hmi</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Handling the inputs from the driver</t>
+  </si>
+  <si>
+    <t>UNIDEB_12</t>
+  </si>
+  <si>
+    <t>The Driver inputs will be simulated with the keyboard</t>
+  </si>
+  <si>
+    <t>UNIDEB_13</t>
+  </si>
+  <si>
+    <t>If the P keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of P</t>
+  </si>
+  <si>
+    <t>UNIDEB_14</t>
+  </si>
+  <si>
+    <t>If the R keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of R</t>
+  </si>
+  <si>
+    <t>UNIDEB_15</t>
+  </si>
+  <si>
+    <t>If the N keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of N</t>
+  </si>
+  <si>
+    <t>UNIDEB_16</t>
+  </si>
+  <si>
+    <t>If the D keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of D</t>
+  </si>
+  <si>
+    <t>UNIDEB_17</t>
+  </si>
+  <si>
+    <t>If the L keyboard key is pressed by the driver, a Headlight signal (id 10) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be TRUE). If the last sent memorized value is TRUE then the currently sent signal value will be FALSE. If the last sent memorized value is FALSE (or there is no last sent memorized value) then the sent signal will be TRUE.  This value needs to be tracked inside the HMI system.</t>
+  </si>
+  <si>
+    <t>UNIDEB_18</t>
   </si>
   <si>
     <t xml:space="preserve">The car's acceleration will be handled by the up arrow key. While the driver press and holds the up arrow key the accumulated value should be increased by one. This incremented value should be sent via signal (id 4) every cycle. If the driver releases the up arrow key, then the gas pedal position accumulated value should be decremented by one and sent every cycle via signal (id 4). This value needs to be tracked inside the HMI system. </t>
   </si>
   <si>
-    <t xml:space="preserve">UNIDEB_19</t>
+    <t>UNIDEB_19</t>
   </si>
   <si>
     <t xml:space="preserve">The car's brakes will be handled by the down arrow key. While the driver press and holds the down arrow key the accumulated value should be increased by one. This incremented value should be sent via signal (id 5) every cycle. If the driver releases the down arrow key, then the brake pedal position accumulated value should be decremented by one and sent every cycle via signal (id 5). This value needs to be tracked inside the HMI system. </t>
   </si>
   <si>
-    <t xml:space="preserve">UNIDEB_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the driver presses and holds the left arrow key, then the currently accumulated value should be decremented by 1. This deceremented value than should be sent via signal (id 6) every cycle. This value needs to be tracked inside the HMI system. Minimum value is -720.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the driver presses and holds the right arrow key, then the currently accumulated value should be incremented by 1. This incremented value than should be sent via signal (id 6) every cycle. This value needs to be tracked inside the HMI system. Maximum value is 720.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the Q keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 2 (LEFT). If the last sent memorized value is 2 (LEFT) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not 2 (LEFT) (eg 0,1 or 3) (or there is no last sent memorized value) then the sent signal will be 2 (LEFT) This value needs to be tracked inside the HMI system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the W keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 3 (EMERGENCY). If the last sent memorized value is 3 (EMERGENCY) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not  3 (EMERGENCY) (eg 0,1 or 2) (or there is no last sent memorized value) then the sent signal will be 3 (EMERGENCY) This value needs to be tracked inside the HMI system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the E keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 1 (RIGHT). If the last sent memorized value is 1 (RIGHT) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not 1 (RIGHT) (eg 0,2 or 3) (or there is no last sent memorized value) then the sent signal will be 1 (RIGHT) This value needs to be tracked inside the HMI system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualisation of court window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trello.com/c/RpCLefE2/16-rd-visualisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The window displaying the court shall display the whole map (background bitmap).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The window should be resizable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The court (map) shall keep its ratio in the window, but fit to the window (in larger dimension of the map).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blank area should be filled with solid (default) color.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At start up, the window should be initialized with the window size of 800x600 px.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powertrain System RD Team 2, Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trello.com/c/htzBlck2/6-rd-powertrain-system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powertrain System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I will use the abbreviation PS for Powertrain System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the PS receive a Gear position signal (id 7) the value shoud be saved (if the following conditions meet) and from then it shall be deemed that the car is in that gear.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the car's speed is 0 km/h then the saveable gear positions are: P, R, N, D (for the meaning of saveable see the requirement above)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the car's speed is bigger than 0 km/h forwards ( so the car is moving forward direction) then the only saveable gear positions are N and D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every time if the received gear position signal's value is equals to the currently saved one (eg the driver pressed D twice or more consequently) then the signal shall not take effect on the gear positions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the car's speed is bigger than 0 km/h backwards (so the car is moving bacward direction) then the only saveable gear positions are N and R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive a Headlight signal (id  10) then it should save the received value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The default value of the Headlight shall be false (so by default, the headlights are turned off)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The default value of the Gear position shall be P (so at the beginning of the application the car should be in P gear)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The default value of the Steering wheel angle shall be 0°</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This requirement has been removed the steering wheel logic is described at UNIDEB_20/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The default value of the Indicator shall be 0 (NONE) at the beginning of the application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the PS receive an Indicator signal (id 3) the logical value shoud be saved (if the following conditions meet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every time if the received Indicator signal's value is equals to the currently saved one (eg the currently saved is 1 (RIGHT) and the received is also 1 (RIGHT) ) then the signal shall not take effect on the indicator's saved value (nothing should happen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive an Indicator signal with the value of 0 (NONE) then both indicators shall be turned off (it should not blink)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive an Indicator signal with the value of 1 (RIGHT) the right indicator should and only the right should start to blink and the left indicator shall be turned off.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive an Indicator signal with the value of 2 (LEFT) the left indicator should and only the ledt should start to blink and the right indicator shall be turned off.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive an Indicator signal  with the value of 3 (EMERGENCY) both left and right indicators should start to blink in synchronized (both turn on and off at the same time while blinking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive a Gas pedal position signal (id 7) and the car is in P gear (see above) then the received signal should not take any effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive a Gas pedal position signal and the car is in N gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive a Gas pedal position signal and the car is in R gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
+    <t>UNIDEB_20</t>
+  </si>
+  <si>
+    <t>If the driver presses and holds the left arrow key, then the currently accumulated value should be decremented by 1. This deceremented value than should be sent via signal (id 6) every cycle. This value needs to be tracked inside the HMI system. Minimum value is -720.</t>
+  </si>
+  <si>
+    <t>UNIDEB_21</t>
+  </si>
+  <si>
+    <t>If the driver presses and holds the right arrow key, then the currently accumulated value should be incremented by 1. This incremented value than should be sent via signal (id 6) every cycle. This value needs to be tracked inside the HMI system. Maximum value is 720.</t>
+  </si>
+  <si>
+    <t>UNIDEB_22</t>
+  </si>
+  <si>
+    <t>If the Q keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 2 (LEFT). If the last sent memorized value is 2 (LEFT) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not 2 (LEFT) (eg 0,1 or 3) (or there is no last sent memorized value) then the sent signal will be 2 (LEFT) This value needs to be tracked inside the HMI system.</t>
+  </si>
+  <si>
+    <t>UNIDEB_23</t>
+  </si>
+  <si>
+    <t>If the W keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 3 (EMERGENCY). If the last sent memorized value is 3 (EMERGENCY) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not  3 (EMERGENCY) (eg 0,1 or 2) (or there is no last sent memorized value) then the sent signal will be 3 (EMERGENCY) This value needs to be tracked inside the HMI system.</t>
+  </si>
+  <si>
+    <t>UNIDEB_24</t>
+  </si>
+  <si>
+    <t>If the E keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 1 (RIGHT). If the last sent memorized value is 1 (RIGHT) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not 1 (RIGHT) (eg 0,2 or 3) (or there is no last sent memorized value) then the sent signal will be 1 (RIGHT) This value needs to be tracked inside the HMI system.</t>
+  </si>
+  <si>
+    <t>UNIDEB_25</t>
+  </si>
+  <si>
+    <t>Visualisation of court window</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/RpCLefE2/16-rd-visualisation</t>
+  </si>
+  <si>
+    <t>VISU</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>UNIDEB_26</t>
+  </si>
+  <si>
+    <t>The window displaying the court shall display the whole map (background bitmap).</t>
+  </si>
+  <si>
+    <t>UNIDEB_27</t>
+  </si>
+  <si>
+    <t>The window should be resizable.</t>
+  </si>
+  <si>
+    <t>UNIDEB_28</t>
+  </si>
+  <si>
+    <t>The court (map) shall keep its ratio in the window, but fit to the window (in larger dimension of the map).</t>
+  </si>
+  <si>
+    <t>UNIDEB_29</t>
+  </si>
+  <si>
+    <t>Blank area should be filled with solid (default) color.</t>
+  </si>
+  <si>
+    <t>UNIDEB_30</t>
+  </si>
+  <si>
+    <t>At start up, the window should be initialized with the window size of 800x600 px.</t>
+  </si>
+  <si>
+    <t>UNIDEB_31</t>
+  </si>
+  <si>
+    <t>Powertrain System RD Team 2, Sprint 1</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/htzBlck2/6-rd-powertrain-system</t>
+  </si>
+  <si>
+    <t>Powertrain System</t>
+  </si>
+  <si>
+    <t>UNIDEB_32</t>
+  </si>
+  <si>
+    <t>I will use the abbreviation PS for Powertrain System</t>
+  </si>
+  <si>
+    <t>UNIDEB_33</t>
+  </si>
+  <si>
+    <t>When the PS receive a Gear position signal (id 7) the value shoud be saved (if the following conditions meet) and from then it shall be deemed that the car is in that gear.</t>
+  </si>
+  <si>
+    <t>UNIDEB_34</t>
+  </si>
+  <si>
+    <t>If the car's speed is 0 km/h then the saveable gear positions are: P, R, N, D (for the meaning of saveable see the requirement above)</t>
+  </si>
+  <si>
+    <t>UNIDEB_35</t>
+  </si>
+  <si>
+    <t>If the car's speed is bigger than 0 km/h forwards ( so the car is moving forward direction) then the only saveable gear positions are N and D</t>
+  </si>
+  <si>
+    <t>UNIDEB_36</t>
+  </si>
+  <si>
+    <t>Every time if the received gear position signal's value is equals to the currently saved one (eg the driver pressed D twice or more consequently) then the signal shall not take effect on the gear positions</t>
+  </si>
+  <si>
+    <t>UNIDEB_37</t>
+  </si>
+  <si>
+    <t>If the car's speed is bigger than 0 km/h backwards (so the car is moving bacward direction) then the only saveable gear positions are N and R</t>
+  </si>
+  <si>
+    <t>UNIDEB_38</t>
+  </si>
+  <si>
+    <t>If the PS receive a Headlight signal (id  10) then it should save the received value.</t>
+  </si>
+  <si>
+    <t>UNIDEB_39</t>
+  </si>
+  <si>
+    <t>The default value of the Headlight shall be false (so by default, the headlights are turned off)</t>
+  </si>
+  <si>
+    <t>UNIDEB_40</t>
+  </si>
+  <si>
+    <t>The default value of the Gear position shall be P (so at the beginning of the application the car should be in P gear)</t>
+  </si>
+  <si>
+    <t>UNIDEB_41</t>
+  </si>
+  <si>
+    <t>The default value of the Steering wheel angle shall be 0°</t>
+  </si>
+  <si>
+    <t>UNIDEB_42</t>
+  </si>
+  <si>
+    <t>This requirement has been removed the steering wheel logic is described at UNIDEB_20/21</t>
+  </si>
+  <si>
+    <t>UNIDEB_43</t>
+  </si>
+  <si>
+    <t>The default value of the Indicator shall be 0 (NONE) at the beginning of the application</t>
+  </si>
+  <si>
+    <t>UNIDEB_44</t>
+  </si>
+  <si>
+    <t>When the PS receive an Indicator signal (id 3) the logical value shoud be saved (if the following conditions meet)</t>
+  </si>
+  <si>
+    <t>UNIDEB_45</t>
+  </si>
+  <si>
+    <t>Every time if the received Indicator signal's value is equals to the currently saved one (eg the currently saved is 1 (RIGHT) and the received is also 1 (RIGHT) ) then the signal shall not take effect on the indicator's saved value (nothing should happen)</t>
+  </si>
+  <si>
+    <t>UNIDEB_46</t>
+  </si>
+  <si>
+    <t>If the PS receive an Indicator signal with the value of 0 (NONE) then both indicators shall be turned off (it should not blink)</t>
+  </si>
+  <si>
+    <t>UNIDEB_47</t>
+  </si>
+  <si>
+    <t>If the PS receive an Indicator signal with the value of 1 (RIGHT) the right indicator should and only the right should start to blink and the left indicator shall be turned off.</t>
+  </si>
+  <si>
+    <t>UNIDEB_48</t>
+  </si>
+  <si>
+    <t>If the PS receive an Indicator signal with the value of 2 (LEFT) the left indicator should and only the ledt should start to blink and the right indicator shall be turned off.</t>
+  </si>
+  <si>
+    <t>UNIDEB_49</t>
+  </si>
+  <si>
+    <t>If the PS receive an Indicator signal  with the value of 3 (EMERGENCY) both left and right indicators should start to blink in synchronized (both turn on and off at the same time while blinking)</t>
+  </si>
+  <si>
+    <t>UNIDEB_50</t>
+  </si>
+  <si>
+    <t>If the PS receive a Gas pedal position signal (id 7) and the car is in P gear (see above) then the received signal should not take any effect.</t>
+  </si>
+  <si>
+    <t>UNIDEB_51</t>
+  </si>
+  <si>
+    <t>If the PS receive a Gas pedal position signal and the car is in N gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9)</t>
+  </si>
+  <si>
+    <t>UNIDEB_52</t>
+  </si>
+  <si>
+    <t>If the PS receive a Gas pedal position signal and the car is in R gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
 Based on the saved steering wheel angle the car should start to accelerate with increasing the speed of the car to bacward direction and this should be done by calculating the car position x and y values, the car angle value and the car's speed and sending these values by signals to the VirtualFunctionBus
 The acceleration should continue while receiving the signal and when the signal is zero, the acceleration should stop and the car should gradually slow down until it reaches the speed of 0 km/h.
 The car's speed should not exceed the maximum of 120 km/h</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIDEB_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive a Gas pedal position signal and the car is in D gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
+    <t>UNIDEB_53</t>
+  </si>
+  <si>
+    <t>If the PS receive a Gas pedal position signal and the car is in D gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
 Based on the saved steering wheel angle the car should start to accelerate with increasing the speed of the car to forward direction and this should be done by calculating the car position x and y values, the car angle value and the car's speed and sending these values by signals to the VirtualFunctionBus
 The acceleration should continue while receiving the signal and when the signal is zero the acceleration should stop and the car should gradually slow down until it reaches the speed of 0 km/h.
 The car's speed should not exceed the maximum of 120 km/h</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIDEB_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the PS receive a Brake pedal position signal (id 5) and the car's speed is bigger than 0 km/h then the car's speed should be decreased by the third of the current speed until it reaches the 0 km/h speed. If the car's speed is 0 km/h then the brake pedal position signal should not take any effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radar Sensor Requirements for Sprint2 (Team1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://trello.com/c/vRSewHge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radar Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Radar Sensor should be able to detect up to 5 objects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Radar Sensor should be able to filter out non relevant objects if there are too many objects in the filed of view of the sensor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Radar Sensor should be able to detect the following objects in the virtual world: (car,  pedestrian, cyclist, tree)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Radar Sensor should be configurable. The default sensor configuration should be:
+    <t>UNIDEB_54</t>
+  </si>
+  <si>
+    <t>If the PS receive a Brake pedal position signal (id 5) and the car's speed is bigger than 0 km/h then the car's speed should be decreased by the third of the current speed until it reaches the 0 km/h speed. If the car's speed is 0 km/h then the brake pedal position signal should not take any effect.</t>
+  </si>
+  <si>
+    <t>UNIDEB_55</t>
+  </si>
+  <si>
+    <t>Radar Sensor Requirements for Sprint2 (Team1)</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/vRSewHge</t>
+  </si>
+  <si>
+    <t>Radar Sensor</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>UNIDEB_56</t>
+  </si>
+  <si>
+    <t>The Radar Sensor should be able to detect up to 5 objects.</t>
+  </si>
+  <si>
+    <t>UNIDEB_57</t>
+  </si>
+  <si>
+    <t>The Radar Sensor should be able to filter out non relevant objects if there are too many objects in the filed of view of the sensor.</t>
+  </si>
+  <si>
+    <t>UNIDEB_58</t>
+  </si>
+  <si>
+    <t>The Radar Sensor should be able to detect the following objects in the virtual world: (car,  pedestrian, cyclist, tree)</t>
+  </si>
+  <si>
+    <t>UNIDEB_59</t>
+  </si>
+  <si>
+    <t>The Radar Sensor should be configurable. The default sensor configuration should be:
 Sensor range: 20-250m
 Sensor field of view: 10-85 degrees</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIDEB_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sensor should be able to calculate the longitudinal relative velocity X of a dynamic object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sensor should send the Longitudinal VRX Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 11).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sensor should be able to calculate the longitudinal distance from ego.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sensor should send the Longitudinal EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 12).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sensor should be able to calculate the lateral relative velocity Y of a dynamic object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sensor should send the Lateral VRY Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 13).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sensor should be able to calculate the lateral distance from ego.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sensor should send the Lateral EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 14).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDEB_68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Radar Sensor should send the Object Size of a detected object via (Signal ID 15).</t>
+    <t>UNIDEB_60</t>
+  </si>
+  <si>
+    <t>The sensor should be able to calculate the longitudinal relative velocity X of a dynamic object.</t>
+  </si>
+  <si>
+    <t>UNIDEB_61</t>
+  </si>
+  <si>
+    <t>The sensor should send the Longitudinal VRX Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 11).</t>
+  </si>
+  <si>
+    <t>UNIDEB_62</t>
+  </si>
+  <si>
+    <t>The sensor should be able to calculate the longitudinal distance from ego.</t>
+  </si>
+  <si>
+    <t>UNIDEB_63</t>
+  </si>
+  <si>
+    <t>The sensor should send the Longitudinal EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 12).</t>
+  </si>
+  <si>
+    <t>UNIDEB_64</t>
+  </si>
+  <si>
+    <t>The sensor should be able to calculate the lateral relative velocity Y of a dynamic object.</t>
+  </si>
+  <si>
+    <t>UNIDEB_65</t>
+  </si>
+  <si>
+    <t>The sensor should send the Lateral VRY Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 13).</t>
+  </si>
+  <si>
+    <t>UNIDEB_66</t>
+  </si>
+  <si>
+    <t>The sensor should be able to calculate the lateral distance from ego.</t>
+  </si>
+  <si>
+    <t>UNIDEB_67</t>
+  </si>
+  <si>
+    <t>The sensor should send the Lateral EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 14).</t>
+  </si>
+  <si>
+    <t>UNIDEB_68</t>
+  </si>
+  <si>
+    <t>The Radar Sensor should send the Object Size of a detected object via (Signal ID 15).</t>
+  </si>
+  <si>
+    <t>Camera RD Team 2, Sprint 2</t>
+  </si>
+  <si>
+    <t>UNIDEB_69</t>
+  </si>
+  <si>
+    <t>https://trello.com/c/kTtHCovv/7-rd-camera</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>The camera is on the car thus it's position should always be the same as the car's position</t>
+  </si>
+  <si>
+    <t>The camera's view distance should be between 20m and 60m</t>
+  </si>
+  <si>
+    <t>For the sprint 2 the camera's distance and view angle should be a constant value.</t>
+  </si>
+  <si>
+    <t>The camera's view angle should be between 30° and 50°</t>
+  </si>
+  <si>
+    <t>The camera should recognise a traffic sign if the following conditions are met:
+The traffic sign is aligned to the camera (ego direction)
+The traffic sign's angle from the horizontal position is maximum 40° in both ways</t>
+  </si>
+  <si>
+    <t>The camera should recognise up to 5 traffic signs. The order of the detected signs are the distances from the car so if there are already 5 recognised traffic signs in the field of view, and a sixth sign appears in the view field and it is also can be recognised, then the furthermost traffic sign should be ignored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic sign meaning signal values: </t>
+  </si>
+  <si>
+    <t>The traffic signs that should be recognised is in the above picture. If there is another traffic sign in the view field which is not in the picture then it should be ignored.</t>
+  </si>
+  <si>
+    <t>UNIDEB_70</t>
+  </si>
+  <si>
+    <t>UNIDEB_71</t>
+  </si>
+  <si>
+    <t>UNIDEB_72</t>
+  </si>
+  <si>
+    <t>UNIDEB_73</t>
+  </si>
+  <si>
+    <t>UNIDEB_74</t>
+  </si>
+  <si>
+    <t>UNIDEB_75</t>
+  </si>
+  <si>
+    <t>UNIDEB_76</t>
+  </si>
+  <si>
+    <t>UNIDEB_77</t>
+  </si>
+  <si>
+    <t>UNIDEB_78</t>
+  </si>
+  <si>
+    <t>If the camera recognises a traffic sign, three signals should be sent to the Communication Bus:
+Longitudinal EGO (ID 18) with the value of the longitudinal distance of the sign from ego
+Lateral EGO (ID 17) with the value of the lateral distance of the sign from ego
+Traffic sign meaning (ID 16) with the appropriate value that represents the traffic sign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -561,88 +632,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -650,14 +640,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -665,7 +648,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -673,7 +656,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -681,7 +664,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -695,48 +678,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -751,250 +698,195 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="8">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
+    <cellStyle name="Magyarázó szöveg" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1053,85 +945,403 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19058</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5445725</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295408" y="34823404"/>
+          <a:ext cx="5426667" cy="4524371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="81.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="49.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="98.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="3" width="9.13"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="98.28515625" style="2" customWidth="1"/>
+    <col min="10" max="1025" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,10 +1406,10 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1209,17 +1419,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1238,7 +1448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1264,7 +1474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1290,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1316,7 +1526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1342,7 +1552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1394,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1423,7 +1633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1449,7 +1659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1475,7 +1685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1501,7 +1711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1527,7 +1737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1553,7 +1763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="77.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1579,7 +1789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1605,14 +1815,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1631,7 +1841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1657,14 +1867,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1683,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="77.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1709,7 +1919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="90.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1735,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1761,7 +1971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -1787,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -1813,7 +2023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -1839,7 +2049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1865,7 +2075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -1891,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -1917,7 +2127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -1943,7 +2153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -1969,7 +2179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -1995,7 +2205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
@@ -2021,7 +2231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -2047,7 +2257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="34.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
@@ -2073,7 +2283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -2099,7 +2309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
@@ -2125,7 +2335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
@@ -2151,7 +2361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -2177,7 +2387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2203,14 +2413,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2229,7 +2439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="19.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
@@ -2255,7 +2465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
@@ -2281,7 +2491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="35.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -2307,7 +2517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="27.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -2333,7 +2543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -2359,7 +2569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -2385,7 +2595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="36.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -2411,7 +2621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
@@ -2437,7 +2647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="48.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:8" ht="48.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -2463,7 +2673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="143.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:8" ht="143.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -2489,7 +2699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="144.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:8" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -2515,7 +2725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="53" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -2541,7 +2751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -2567,7 +2777,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
@@ -2593,7 +2803,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
@@ -2619,7 +2829,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
@@ -2645,7 +2855,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="32.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>149</v>
       </c>
@@ -2671,7 +2881,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>151</v>
       </c>
@@ -2697,7 +2907,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>153</v>
       </c>
@@ -2723,7 +2933,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>155</v>
       </c>
@@ -2749,7 +2959,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>157</v>
       </c>
@@ -2775,7 +2985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>159</v>
       </c>
@@ -2801,7 +3011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -2827,14 +3037,14 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>164</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -2853,7 +3063,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>165</v>
       </c>
@@ -2879,7 +3089,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>167</v>
       </c>
@@ -2902,6 +3112,266 @@
         <v>14</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2911,15 +3381,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://trello.com/c/I705RNQO/1-demo-task-1"/>
+    <hyperlink ref="E5" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\school\bosch\gitrepo\UniDebAutomatedCar\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Requirement" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirement" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Requirement!$A$2:$I$12</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Requirement!$A$2:$I$12</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Requirement!$A$2:$I$12</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Requirement!$A$2:$I$2</definedName>
-    <definedName name="_FilterDatabase_1" localSheetId="0">Requirement!$A$2:$I$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Requirement!$A$2:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_1" vbProcedure="false">Requirement!$A$2:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,599 +29,668 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="191">
-  <si>
-    <t>UNIDEB Requirements</t>
-  </si>
-  <si>
-    <t>Req ID</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Ticket ID</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>Responsible</t>
-  </si>
-  <si>
-    <t>Planned For</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>UNIDEB_1</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>This is the first chapter</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>UNIDEB_2</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>This is only an info, this shuld not be implemented!</t>
-  </si>
-  <si>
-    <t>UNIDEB_3</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>This is a requirement, the point should be realized!</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/I705RNQO/1-demo-task-1</t>
-  </si>
-  <si>
-    <t>UNIDEB_4</t>
-  </si>
-  <si>
-    <t>Instrument Cluster Team 1, Sprint 1</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/ymCPlDdr/5-rd-instrument-cluster</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>The following 6 requirements are needed from Team1 for Sprint1</t>
-  </si>
-  <si>
-    <t>UNIDEB_5</t>
-  </si>
-  <si>
-    <t>Graphical indicator of the steering wheel that is controlled by the Steering Wheel Angle (Signal ID 6*)</t>
-  </si>
-  <si>
-    <t>UNIDEB_6</t>
-  </si>
-  <si>
-    <t>Graphical indicator of the vehicle speed controlled by the Vehicle Speed (Signal ID 8*)  (analogue speedometer)</t>
-  </si>
-  <si>
-    <t>UNIDEB_7</t>
-  </si>
-  <si>
-    <t>Graphical indicator of the motor rotation speed controlled by the Rotation Speed (Signal ID 9*) (analogue tachometer)</t>
-  </si>
-  <si>
-    <t>UNIDEB_8</t>
-  </si>
-  <si>
-    <t>Graphical indicators for the turn signals controlled by the Indicator (Signal ID 3*) (icons)</t>
-  </si>
-  <si>
-    <t>UNIDEB_9</t>
-  </si>
-  <si>
-    <t>Graphical indicator for the headlight controlled by the Headlight (Signal ID 10*) (icon)</t>
-  </si>
-  <si>
-    <t>UNIDEB_10</t>
-  </si>
-  <si>
-    <t>Graphical indicator for the gear position controlled by the Gear Position (Signal ID 7*) (icons)</t>
-  </si>
-  <si>
-    <t>UNIDEB_11</t>
-  </si>
-  <si>
-    <t>Human Machine Interface Team 2, Sprint 1</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/cuf7QmPD/7-rd-hmi</t>
-  </si>
-  <si>
-    <t>HMI</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>Handling the inputs from the driver</t>
-  </si>
-  <si>
-    <t>UNIDEB_12</t>
-  </si>
-  <si>
-    <t>The Driver inputs will be simulated with the keyboard</t>
-  </si>
-  <si>
-    <t>UNIDEB_13</t>
-  </si>
-  <si>
-    <t>If the P keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of P</t>
-  </si>
-  <si>
-    <t>UNIDEB_14</t>
-  </si>
-  <si>
-    <t>If the R keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of R</t>
-  </si>
-  <si>
-    <t>UNIDEB_15</t>
-  </si>
-  <si>
-    <t>If the N keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of N</t>
-  </si>
-  <si>
-    <t>UNIDEB_16</t>
-  </si>
-  <si>
-    <t>If the D keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of D</t>
-  </si>
-  <si>
-    <t>UNIDEB_17</t>
-  </si>
-  <si>
-    <t>If the L keyboard key is pressed by the driver, a Headlight signal (id 10) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be TRUE). If the last sent memorized value is TRUE then the currently sent signal value will be FALSE. If the last sent memorized value is FALSE (or there is no last sent memorized value) then the sent signal will be TRUE.  This value needs to be tracked inside the HMI system.</t>
-  </si>
-  <si>
-    <t>UNIDEB_18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="212">
+  <si>
+    <t xml:space="preserve">UNIDEB Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the first chapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is only an info, this shuld not be implemented!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a requirement, the point should be realized!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/I705RNQO/1-demo-task-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Cluster Team 1, Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/ymCPlDdr/5-rd-instrument-cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following 6 requirements are needed from Team1 for Sprint1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical indicator of the steering wheel that is controlled by the Steering Wheel Angle (Signal ID 6*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical indicator of the vehicle speed controlled by the Vehicle Speed (Signal ID 8*)  (analogue speedometer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical indicator of the motor rotation speed controlled by the Rotation Speed (Signal ID 9*) (analogue tachometer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical indicators for the turn signals controlled by the Indicator (Signal ID 3*) (icons)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical indicator for the headlight controlled by the Headlight (Signal ID 10*) (icon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical indicator for the gear position controlled by the Gear Position (Signal ID 7*) (icons)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Machine Interface Team 2, Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/cuf7QmPD/7-rd-hmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handling the inputs from the driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Driver inputs will be simulated with the keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the P keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the R keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the N keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the D keyboard key is pressed by the driver, the Gear Position signal (id 7) will be sent to the VirtualFunctionBus with the logical value of D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the L keyboard key is pressed by the driver, a Headlight signal (id 10) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be TRUE). If the last sent memorized value is TRUE then the currently sent signal value will be FALSE. If the last sent memorized value is FALSE (or there is no last sent memorized value) then the sent signal will be TRUE.  This value needs to be tracked inside the HMI system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_18</t>
   </si>
   <si>
     <t xml:space="preserve">The car's acceleration will be handled by the up arrow key. While the driver press and holds the up arrow key the accumulated value should be increased by one. This incremented value should be sent via signal (id 4) every cycle. If the driver releases the up arrow key, then the gas pedal position accumulated value should be decremented by one and sent every cycle via signal (id 4). This value needs to be tracked inside the HMI system. </t>
   </si>
   <si>
-    <t>UNIDEB_19</t>
+    <t xml:space="preserve">UNIDEB_19</t>
   </si>
   <si>
     <t xml:space="preserve">The car's brakes will be handled by the down arrow key. While the driver press and holds the down arrow key the accumulated value should be increased by one. This incremented value should be sent via signal (id 5) every cycle. If the driver releases the down arrow key, then the brake pedal position accumulated value should be decremented by one and sent every cycle via signal (id 5). This value needs to be tracked inside the HMI system. </t>
   </si>
   <si>
-    <t>UNIDEB_20</t>
-  </si>
-  <si>
-    <t>If the driver presses and holds the left arrow key, then the currently accumulated value should be decremented by 1. This deceremented value than should be sent via signal (id 6) every cycle. This value needs to be tracked inside the HMI system. Minimum value is -720.</t>
-  </si>
-  <si>
-    <t>UNIDEB_21</t>
-  </si>
-  <si>
-    <t>If the driver presses and holds the right arrow key, then the currently accumulated value should be incremented by 1. This incremented value than should be sent via signal (id 6) every cycle. This value needs to be tracked inside the HMI system. Maximum value is 720.</t>
-  </si>
-  <si>
-    <t>UNIDEB_22</t>
-  </si>
-  <si>
-    <t>If the Q keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 2 (LEFT). If the last sent memorized value is 2 (LEFT) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not 2 (LEFT) (eg 0,1 or 3) (or there is no last sent memorized value) then the sent signal will be 2 (LEFT) This value needs to be tracked inside the HMI system.</t>
-  </si>
-  <si>
-    <t>UNIDEB_23</t>
-  </si>
-  <si>
-    <t>If the W keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 3 (EMERGENCY). If the last sent memorized value is 3 (EMERGENCY) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not  3 (EMERGENCY) (eg 0,1 or 2) (or there is no last sent memorized value) then the sent signal will be 3 (EMERGENCY) This value needs to be tracked inside the HMI system.</t>
-  </si>
-  <si>
-    <t>UNIDEB_24</t>
-  </si>
-  <si>
-    <t>If the E keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 1 (RIGHT). If the last sent memorized value is 1 (RIGHT) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not 1 (RIGHT) (eg 0,2 or 3) (or there is no last sent memorized value) then the sent signal will be 1 (RIGHT) This value needs to be tracked inside the HMI system.</t>
-  </si>
-  <si>
-    <t>UNIDEB_25</t>
-  </si>
-  <si>
-    <t>Visualisation of court window</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/RpCLefE2/16-rd-visualisation</t>
-  </si>
-  <si>
-    <t>VISU</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>UNIDEB_26</t>
-  </si>
-  <si>
-    <t>The window displaying the court shall display the whole map (background bitmap).</t>
-  </si>
-  <si>
-    <t>UNIDEB_27</t>
-  </si>
-  <si>
-    <t>The window should be resizable.</t>
-  </si>
-  <si>
-    <t>UNIDEB_28</t>
-  </si>
-  <si>
-    <t>The court (map) shall keep its ratio in the window, but fit to the window (in larger dimension of the map).</t>
-  </si>
-  <si>
-    <t>UNIDEB_29</t>
-  </si>
-  <si>
-    <t>Blank area should be filled with solid (default) color.</t>
-  </si>
-  <si>
-    <t>UNIDEB_30</t>
-  </si>
-  <si>
-    <t>At start up, the window should be initialized with the window size of 800x600 px.</t>
-  </si>
-  <si>
-    <t>UNIDEB_31</t>
-  </si>
-  <si>
-    <t>Powertrain System RD Team 2, Sprint 1</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/htzBlck2/6-rd-powertrain-system</t>
-  </si>
-  <si>
-    <t>Powertrain System</t>
-  </si>
-  <si>
-    <t>UNIDEB_32</t>
-  </si>
-  <si>
-    <t>I will use the abbreviation PS for Powertrain System</t>
-  </si>
-  <si>
-    <t>UNIDEB_33</t>
-  </si>
-  <si>
-    <t>When the PS receive a Gear position signal (id 7) the value shoud be saved (if the following conditions meet) and from then it shall be deemed that the car is in that gear.</t>
-  </si>
-  <si>
-    <t>UNIDEB_34</t>
-  </si>
-  <si>
-    <t>If the car's speed is 0 km/h then the saveable gear positions are: P, R, N, D (for the meaning of saveable see the requirement above)</t>
-  </si>
-  <si>
-    <t>UNIDEB_35</t>
-  </si>
-  <si>
-    <t>If the car's speed is bigger than 0 km/h forwards ( so the car is moving forward direction) then the only saveable gear positions are N and D</t>
-  </si>
-  <si>
-    <t>UNIDEB_36</t>
-  </si>
-  <si>
-    <t>Every time if the received gear position signal's value is equals to the currently saved one (eg the driver pressed D twice or more consequently) then the signal shall not take effect on the gear positions</t>
-  </si>
-  <si>
-    <t>UNIDEB_37</t>
-  </si>
-  <si>
-    <t>If the car's speed is bigger than 0 km/h backwards (so the car is moving bacward direction) then the only saveable gear positions are N and R</t>
-  </si>
-  <si>
-    <t>UNIDEB_38</t>
-  </si>
-  <si>
-    <t>If the PS receive a Headlight signal (id  10) then it should save the received value.</t>
-  </si>
-  <si>
-    <t>UNIDEB_39</t>
-  </si>
-  <si>
-    <t>The default value of the Headlight shall be false (so by default, the headlights are turned off)</t>
-  </si>
-  <si>
-    <t>UNIDEB_40</t>
-  </si>
-  <si>
-    <t>The default value of the Gear position shall be P (so at the beginning of the application the car should be in P gear)</t>
-  </si>
-  <si>
-    <t>UNIDEB_41</t>
-  </si>
-  <si>
-    <t>The default value of the Steering wheel angle shall be 0°</t>
-  </si>
-  <si>
-    <t>UNIDEB_42</t>
-  </si>
-  <si>
-    <t>This requirement has been removed the steering wheel logic is described at UNIDEB_20/21</t>
-  </si>
-  <si>
-    <t>UNIDEB_43</t>
-  </si>
-  <si>
-    <t>The default value of the Indicator shall be 0 (NONE) at the beginning of the application</t>
-  </si>
-  <si>
-    <t>UNIDEB_44</t>
-  </si>
-  <si>
-    <t>When the PS receive an Indicator signal (id 3) the logical value shoud be saved (if the following conditions meet)</t>
-  </si>
-  <si>
-    <t>UNIDEB_45</t>
-  </si>
-  <si>
-    <t>Every time if the received Indicator signal's value is equals to the currently saved one (eg the currently saved is 1 (RIGHT) and the received is also 1 (RIGHT) ) then the signal shall not take effect on the indicator's saved value (nothing should happen)</t>
-  </si>
-  <si>
-    <t>UNIDEB_46</t>
-  </si>
-  <si>
-    <t>If the PS receive an Indicator signal with the value of 0 (NONE) then both indicators shall be turned off (it should not blink)</t>
-  </si>
-  <si>
-    <t>UNIDEB_47</t>
-  </si>
-  <si>
-    <t>If the PS receive an Indicator signal with the value of 1 (RIGHT) the right indicator should and only the right should start to blink and the left indicator shall be turned off.</t>
-  </si>
-  <si>
-    <t>UNIDEB_48</t>
-  </si>
-  <si>
-    <t>If the PS receive an Indicator signal with the value of 2 (LEFT) the left indicator should and only the ledt should start to blink and the right indicator shall be turned off.</t>
-  </si>
-  <si>
-    <t>UNIDEB_49</t>
-  </si>
-  <si>
-    <t>If the PS receive an Indicator signal  with the value of 3 (EMERGENCY) both left and right indicators should start to blink in synchronized (both turn on and off at the same time while blinking)</t>
-  </si>
-  <si>
-    <t>UNIDEB_50</t>
-  </si>
-  <si>
-    <t>If the PS receive a Gas pedal position signal (id 7) and the car is in P gear (see above) then the received signal should not take any effect.</t>
-  </si>
-  <si>
-    <t>UNIDEB_51</t>
-  </si>
-  <si>
-    <t>If the PS receive a Gas pedal position signal and the car is in N gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9)</t>
-  </si>
-  <si>
-    <t>UNIDEB_52</t>
-  </si>
-  <si>
-    <t>If the PS receive a Gas pedal position signal and the car is in R gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
+    <t xml:space="preserve">UNIDEB_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the driver presses and holds the left arrow key, then the currently accumulated value should be decremented by 1. This deceremented value than should be sent via signal (id 6) every cycle. This value needs to be tracked inside the HMI system. Minimum value is -720.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the driver presses and holds the right arrow key, then the currently accumulated value should be incremented by 1. This incremented value than should be sent via signal (id 6) every cycle. This value needs to be tracked inside the HMI system. Maximum value is 720.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the Q keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 2 (LEFT). If the last sent memorized value is 2 (LEFT) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not 2 (LEFT) (eg 0,1 or 3) (or there is no last sent memorized value) then the sent signal will be 2 (LEFT) This value needs to be tracked inside the HMI system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the W keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 3 (EMERGENCY). If the last sent memorized value is 3 (EMERGENCY) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not  3 (EMERGENCY) (eg 0,1 or 2) (or there is no last sent memorized value) then the sent signal will be 3 (EMERGENCY) This value needs to be tracked inside the HMI system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the E keyboard key is pressed by the driver, an Indicator signal (id 3) will be sent to the VirtualFunctionBus and the sent value should be memorized. The sent logical value is depends on the previous sendings (determined from the last send memorized value or if there is no memorized value, the sent logical value must be 1 (RIGHT). If the last sent memorized value is 1 (RIGHT) then the currently sent signal value will be 0 (NONE) If the last sent memorized value is not 1 (RIGHT) (eg 0,2 or 3) (or there is no last sent memorized value) then the sent signal will be 1 (RIGHT) This value needs to be tracked inside the HMI system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualisation of court window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/RpCLefE2/16-rd-visualisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window displaying the court shall display the whole map (background bitmap).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window should be resizable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The court (map) shall keep its ratio in the window, but fit to the window (in larger dimension of the map).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank area should be filled with solid (default) color.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At start up, the window should be initialized with the window size of 800x600 px.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powertrain System RD Team 2, Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/htzBlck2/6-rd-powertrain-system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powertrain System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will use the abbreviation PS for Powertrain System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the PS receive a Gear position signal (id 7) the value shoud be saved (if the following conditions meet) and from then it shall be deemed that the car is in that gear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the car's speed is 0 km/h then the saveable gear positions are: P, R, N, D (for the meaning of saveable see the requirement above)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the car's speed is bigger than 0 km/h forwards ( so the car is moving forward direction) then the only saveable gear positions are N and D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time if the received gear position signal's value is equals to the currently saved one (eg the driver pressed D twice or more consequently) then the signal shall not take effect on the gear positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the car's speed is bigger than 0 km/h backwards (so the car is moving bacward direction) then the only saveable gear positions are N and R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive a Headlight signal (id  10) then it should save the received value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The default value of the Headlight shall be false (so by default, the headlights are turned off)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The default value of the Gear position shall be P (so at the beginning of the application the car should be in P gear)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The default value of the Steering wheel angle shall be 0°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This requirement has been removed the steering wheel logic is described at UNIDEB_20/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The default value of the Indicator shall be 0 (NONE) at the beginning of the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the PS receive an Indicator signal (id 3) the logical value shoud be saved (if the following conditions meet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time if the received Indicator signal's value is equals to the currently saved one (eg the currently saved is 1 (RIGHT) and the received is also 1 (RIGHT) ) then the signal shall not take effect on the indicator's saved value (nothing should happen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive an Indicator signal with the value of 0 (NONE) then both indicators shall be turned off (it should not blink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive an Indicator signal with the value of 1 (RIGHT) the right indicator should and only the right should start to blink and the left indicator shall be turned off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive an Indicator signal with the value of 2 (LEFT) the left indicator should and only the ledt should start to blink and the right indicator shall be turned off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive an Indicator signal  with the value of 3 (EMERGENCY) both left and right indicators should start to blink in synchronized (both turn on and off at the same time while blinking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive a Gas pedal position signal (id 7) and the car is in P gear (see above) then the received signal should not take any effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive a Gas pedal position signal and the car is in N gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive a Gas pedal position signal and the car is in R gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
 Based on the saved steering wheel angle the car should start to accelerate with increasing the speed of the car to bacward direction and this should be done by calculating the car position x and y values, the car angle value and the car's speed and sending these values by signals to the VirtualFunctionBus
 The acceleration should continue while receiving the signal and when the signal is zero, the acceleration should stop and the car should gradually slow down until it reaches the speed of 0 km/h.
 The car's speed should not exceed the maximum of 120 km/h</t>
   </si>
   <si>
-    <t>UNIDEB_53</t>
-  </si>
-  <si>
-    <t>If the PS receive a Gas pedal position signal and the car is in D gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
+    <t xml:space="preserve">UNIDEB_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive a Gas pedal position signal and the car is in D gear then the car motor's rpm should be calculated based on the received signal's value (which is in percentage) (eg if the received signal value is 50% then the rpm should be the 50% of the maximum rpm value) and this calculated value should be considered when the PS sends the motor rpm signal (id 9) and the following also has to be done:
 Based on the saved steering wheel angle the car should start to accelerate with increasing the speed of the car to forward direction and this should be done by calculating the car position x and y values, the car angle value and the car's speed and sending these values by signals to the VirtualFunctionBus
 The acceleration should continue while receiving the signal and when the signal is zero the acceleration should stop and the car should gradually slow down until it reaches the speed of 0 km/h.
 The car's speed should not exceed the maximum of 120 km/h</t>
   </si>
   <si>
-    <t>UNIDEB_54</t>
-  </si>
-  <si>
-    <t>If the PS receive a Brake pedal position signal (id 5) and the car's speed is bigger than 0 km/h then the car's speed should be decreased by the third of the current speed until it reaches the 0 km/h speed. If the car's speed is 0 km/h then the brake pedal position signal should not take any effect.</t>
-  </si>
-  <si>
-    <t>UNIDEB_55</t>
-  </si>
-  <si>
-    <t>Radar Sensor Requirements for Sprint2 (Team1)</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/vRSewHge</t>
-  </si>
-  <si>
-    <t>Radar Sensor</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>UNIDEB_56</t>
-  </si>
-  <si>
-    <t>The Radar Sensor should be able to detect up to 5 objects.</t>
-  </si>
-  <si>
-    <t>UNIDEB_57</t>
-  </si>
-  <si>
-    <t>The Radar Sensor should be able to filter out non relevant objects if there are too many objects in the filed of view of the sensor.</t>
-  </si>
-  <si>
-    <t>UNIDEB_58</t>
-  </si>
-  <si>
-    <t>The Radar Sensor should be able to detect the following objects in the virtual world: (car,  pedestrian, cyclist, tree)</t>
-  </si>
-  <si>
-    <t>UNIDEB_59</t>
-  </si>
-  <si>
-    <t>The Radar Sensor should be configurable. The default sensor configuration should be:
+    <t xml:space="preserve">UNIDEB_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the PS receive a Brake pedal position signal (id 5) and the car's speed is bigger than 0 km/h then the car's speed should be decreased by the third of the current speed until it reaches the 0 km/h speed. If the car's speed is 0 km/h then the brake pedal position signal should not take any effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radar Sensor Requirements for Sprint2 (Team1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/vRSewHge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radar Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should be able to detect up to 5 objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should be able to filter out non relevant objects if there are too many objects in the filed of view of the sensor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should be able to detect the following objects in the virtual world: (car,  pedestrian, cyclist, tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should be configurable. The default sensor configuration should be:
 Sensor range: 20-250m
 Sensor field of view: 10-85 degrees</t>
   </si>
   <si>
-    <t>UNIDEB_60</t>
-  </si>
-  <si>
-    <t>The sensor should be able to calculate the longitudinal relative velocity X of a dynamic object.</t>
-  </si>
-  <si>
-    <t>UNIDEB_61</t>
-  </si>
-  <si>
-    <t>The sensor should send the Longitudinal VRX Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 11).</t>
-  </si>
-  <si>
-    <t>UNIDEB_62</t>
-  </si>
-  <si>
-    <t>The sensor should be able to calculate the longitudinal distance from ego.</t>
-  </si>
-  <si>
-    <t>UNIDEB_63</t>
-  </si>
-  <si>
-    <t>The sensor should send the Longitudinal EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 12).</t>
-  </si>
-  <si>
-    <t>UNIDEB_64</t>
-  </si>
-  <si>
-    <t>The sensor should be able to calculate the lateral relative velocity Y of a dynamic object.</t>
-  </si>
-  <si>
-    <t>UNIDEB_65</t>
-  </si>
-  <si>
-    <t>The sensor should send the Lateral VRY Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 13).</t>
-  </si>
-  <si>
-    <t>UNIDEB_66</t>
-  </si>
-  <si>
-    <t>The sensor should be able to calculate the lateral distance from ego.</t>
-  </si>
-  <si>
-    <t>UNIDEB_67</t>
-  </si>
-  <si>
-    <t>The sensor should send the Lateral EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 14).</t>
-  </si>
-  <si>
-    <t>UNIDEB_68</t>
-  </si>
-  <si>
-    <t>The Radar Sensor should send the Object Size of a detected object via (Signal ID 15).</t>
-  </si>
-  <si>
-    <t>Camera RD Team 2, Sprint 2</t>
-  </si>
-  <si>
-    <t>UNIDEB_69</t>
-  </si>
-  <si>
-    <t>https://trello.com/c/kTtHCovv/7-rd-camera</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>The camera is on the car thus it's position should always be the same as the car's position</t>
-  </si>
-  <si>
-    <t>The camera's view distance should be between 20m and 60m</t>
-  </si>
-  <si>
-    <t>For the sprint 2 the camera's distance and view angle should be a constant value.</t>
-  </si>
-  <si>
-    <t>The camera's view angle should be between 30° and 50°</t>
-  </si>
-  <si>
-    <t>The camera should recognise a traffic sign if the following conditions are met:
+    <t xml:space="preserve">UNIDEB_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should be able to calculate the longitudinal relative velocity X of a dynamic object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should send the Longitudinal VRX Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 11).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should be able to calculate the longitudinal distance from ego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should send the Longitudinal EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 12).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should be able to calculate the lateral relative velocity Y of a dynamic object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should send the Lateral VRY Signal of a dynamic object if it is in the sensor’s active area via  (Signal ID 13).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should be able to calculate the lateral distance from ego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sensor should send the Lateral EGO Signal of an object if it is in the sensor’s active area via  (Signal ID 14).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Radar Sensor should send the Object Size of a detected object via (Signal ID 15).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera RD Team 2, Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/kTtHCovv/7-rd-camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The camera is on the car thus it's position should always be the same as the car's position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The camera's view distance should be between 20m and 60m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The camera's view angle should be between 30° and 50°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the sprint 2 the camera's distance and view angle should be a constant value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The camera should recognise a traffic sign if the following conditions are met:
 The traffic sign is aligned to the camera (ego direction)
 The traffic sign's angle from the horizontal position is maximum 40° in both ways</t>
   </si>
   <si>
-    <t>The camera should recognise up to 5 traffic signs. The order of the detected signs are the distances from the car so if there are already 5 recognised traffic signs in the field of view, and a sixth sign appears in the view field and it is also can be recognised, then the furthermost traffic sign should be ignored.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic sign meaning signal values: </t>
-  </si>
-  <si>
-    <t>The traffic signs that should be recognised is in the above picture. If there is another traffic sign in the view field which is not in the picture then it should be ignored.</t>
-  </si>
-  <si>
-    <t>UNIDEB_70</t>
-  </si>
-  <si>
-    <t>UNIDEB_71</t>
-  </si>
-  <si>
-    <t>UNIDEB_72</t>
-  </si>
-  <si>
-    <t>UNIDEB_73</t>
-  </si>
-  <si>
-    <t>UNIDEB_74</t>
-  </si>
-  <si>
-    <t>UNIDEB_75</t>
-  </si>
-  <si>
-    <t>UNIDEB_76</t>
-  </si>
-  <si>
-    <t>UNIDEB_77</t>
-  </si>
-  <si>
-    <t>UNIDEB_78</t>
-  </si>
-  <si>
-    <t>If the camera recognises a traffic sign, three signals should be sent to the Communication Bus:
+    <t xml:space="preserve">UNIDEB_75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The camera should recognise up to 5 traffic signs. The order of the detected signs are the distances from the car so if there are already 5 recognised traffic signs in the field of view, and a sixth sign appears in the view field and it is also can be recognised, then the furthermost traffic sign should be ignored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the camera recognises a traffic sign, three signals should be sent to the Communication Bus:
 Longitudinal EGO (ID 18) with the value of the longitudinal distance of the sign from ego
 Lateral EGO (ID 17) with the value of the lateral distance of the sign from ego
 Traffic sign meaning (ID 16) with the appropriate value that represents the traffic sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic sign meaning signal values: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The traffic signs that should be recognise is in the above picture. If there is another traffic sign in the view field which is not in the picture then it should be ignored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Sign Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will use the abbreviation TSR for the Traffic Sign Recognition system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressing the T key on the keyboard should toggle the on/off state of the TSR module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/zLIg98E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By default the TSR module should be enabled (the button on the HMI interface is pushed in).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The TSR should send the most relevant speed limit sign to the IC. Using the MOST RELEVANT SPEED LIMIT Signal (Signal id: 21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/c/sjrJZ7jM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The TSR should be able to send signals to the IC for the supplemental signs.  Using the SHOW SUPPLEMENTAL SIGNS ON IC Signal (Signal id: 22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The TSR should be able to filter out non relevant signals in these situations:
+-detected a sign in a roundabout’s branch (non relevant sign), and similar situations
+-while moving in reverse detected signs are not relevant since we are not going forward
+-in parking mode sings are not relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The TSR should send the most relevant speed limit to the ACC using the MOST RELEVANT SPEED LIMIT Signal (Signal id: 22)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -632,7 +699,91 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -640,7 +791,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -648,7 +806,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -656,7 +814,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -664,26 +822,56 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -698,195 +886,246 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
-    <border>
+  <borders count="9">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF808080"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="37">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
-    <cellStyle name="Magyarázó szöveg" xfId="2" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+  <cellStyles count="23">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -945,69 +1184,46 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19058</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>19054</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5445725</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>5172480</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Kép 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="0" name="Kép 1" descr=""/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295408" y="34823404"/>
-          <a:ext cx="5426667" cy="4524371"/>
+          <a:off x="1515960" y="35011800"/>
+          <a:ext cx="5006880" cy="4173840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1015,333 +1231,76 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="98.28515625" style="2" customWidth="1"/>
-    <col min="10" max="1025" width="9.140625" style="3" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="81.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="49.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="98.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="3" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1406,10 +1365,10 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1419,17 +1378,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1448,7 +1407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1474,7 +1433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1500,7 +1459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1552,7 +1511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1604,7 +1563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1633,7 +1592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1659,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1685,7 +1644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1711,7 +1670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1763,7 +1722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1789,7 +1748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1815,14 +1774,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1841,7 +1800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1867,14 +1826,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1893,7 +1852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="77.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +1878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="90.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1945,7 +1904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -1971,7 +1930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -1997,7 +1956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -2023,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2049,7 +2008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -2075,7 +2034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -2101,7 +2060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -2127,7 +2086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -2153,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -2179,7 +2138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -2205,7 +2164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
@@ -2231,7 +2190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -2257,7 +2216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="34.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
@@ -2283,7 +2242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -2309,7 +2268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
@@ -2335,7 +2294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
@@ -2361,7 +2320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
@@ -2387,7 +2346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2413,14 +2372,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2439,7 +2398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
@@ -2465,7 +2424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
@@ -2491,7 +2450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="35.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -2517,7 +2476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="27.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -2543,7 +2502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="30.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -2569,7 +2528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -2595,7 +2554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="36.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -2621,7 +2580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
@@ -2647,7 +2606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="48.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="48.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -2673,7 +2632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="143.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="143.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -2699,7 +2658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="144.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
@@ -2725,7 +2684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="53.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
@@ -2751,7 +2710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -2777,7 +2736,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
@@ -2803,7 +2762,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
@@ -2829,7 +2788,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
@@ -2855,7 +2814,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>149</v>
       </c>
@@ -2881,7 +2840,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>151</v>
       </c>
@@ -2907,7 +2866,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>153</v>
       </c>
@@ -2933,7 +2892,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>155</v>
       </c>
@@ -2959,7 +2918,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>157</v>
       </c>
@@ -2985,7 +2944,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>159</v>
       </c>
@@ -3011,7 +2970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
@@ -3037,14 +2996,14 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="14" t="s">
         <v>164</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -3063,7 +3022,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>165</v>
       </c>
@@ -3089,7 +3048,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>167</v>
       </c>
@@ -3115,15 +3074,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>22</v>
@@ -3141,15 +3100,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>22</v>
@@ -3167,15 +3126,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>22</v>
@@ -3193,15 +3152,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>22</v>
@@ -3219,15 +3178,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>22</v>
@@ -3245,15 +3204,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>22</v>
@@ -3271,15 +3230,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>22</v>
@@ -3297,15 +3256,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>22</v>
@@ -3323,15 +3282,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>22</v>
@@ -3349,7 +3308,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>189</v>
       </c>
@@ -3357,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>22</v>
@@ -3375,16 +3334,201 @@
         <v>142</v>
       </c>
     </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:I70"/>
+  <autoFilter ref="A2:I12"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://trello.com/c/I705RNQO/1-demo-task-1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_1" vbProcedure="false">Requirement!$A$2:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Requirement!$A$2:$I$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="220">
   <si>
     <t xml:space="preserve">UNIDEB Requirements</t>
   </si>
@@ -681,6 +682,30 @@
   </si>
   <si>
     <t xml:space="preserve">The TSR should send the most relevant speed limit to the ACC using the MOST RELEVANT SPEED LIMIT Signal (Signal id: 22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the driver disables the TSR system it should reset it’s accumulated data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a sign is enabled but the TSR system receives a sign that should cancel out the enabled sign the TSR system should send a disable signal via DON’T SHOW SUPPLEMENTAL SIGNS ON IC Signal (Signal id: 28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The TSR should be able to disable certain signs based on elapsed time. In our case the “no speed limit” sign should get disables after a while.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDEB_89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cancel out signal for the speed limit sign should be the MOST RELEVANT SPEED LIMIT with data of 0.</t>
   </si>
 </sst>
 </file>
@@ -702,19 +727,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
@@ -1194,15 +1216,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5172480</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1215,8 +1237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1515960" y="35011800"/>
-          <a:ext cx="5006880" cy="4173840"/>
+          <a:off x="1516320" y="35046360"/>
+          <a:ext cx="5006520" cy="4173120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1236,12 +1258,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
+      <selection pane="bottomLeft" activeCell="C112" activeCellId="0" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3504,10 +3526,110 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="32.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3521,6 +3643,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="https://trello.com/c/I705RNQO/1-demo-task-1"/>
+    <hyperlink ref="E112" r:id="rId2" display="https://trello.com/c/sjrJZ7jM"/>
+    <hyperlink ref="E113" r:id="rId3" display="https://trello.com/c/sjrJZ7jM"/>
+    <hyperlink ref="E114" r:id="rId4" display="https://trello.com/c/sjrJZ7jM"/>
+    <hyperlink ref="E115" r:id="rId5" display="https://trello.com/c/sjrJZ7jM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3529,6 +3655,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
+++ b/UniDebAutomatedCar/doc/UniDebAutomCar2017-1_Requirements.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="265">
   <si>
     <t>UNIDEB Requirements</t>
   </si>
@@ -756,9 +756,6 @@
     <t>If the ACC is in Active state and there is no object ahead of our car and the car's speed is already the currently set ACC speed then nothing should happen.</t>
   </si>
   <si>
-    <t>If the driver press the 'a' key on the keyboard, the HMI module should send an ACC status changed signal (ID 29).  The sent value should be based on the saved ACC status change value. If the saved value is 1 then the sent value should be 0. If the saved value is 0 then the sent value should be 1.</t>
-  </si>
-  <si>
     <t>If the HMI module receive an ACC status changed signal (ID 29), the received signal's value should be saved. The default saved value should be 0.</t>
   </si>
   <si>
@@ -808,6 +805,45 @@
   </si>
   <si>
     <t>UNIDEB_104</t>
+  </si>
+  <si>
+    <t>If the driver press the 'a' key on the keyboard, the HMI module should send an ACC status changed signal (ID 29).  The sent value should be based on the saved ACC status change value. If the saved value is 1 (ACTIVE) or 2 (SUSPENDED) or 3 (STOPANDGO) then the sent value should be 0. If the saved value is 0 (DISABLED) then the sent value should be 1.</t>
+  </si>
+  <si>
+    <t>If the driver press the 's' key on the keyboard, the HMI module should send an ACC setting changed signal (ID 30).  The sent value should be based on the saved ACC setting changed value. If the saved value is 0 (CRUISE CONTROL SPEED) then the sent value should be 0 (SAFE DISTANCE). If the saved value is 0 then the sent value should be 1.</t>
+  </si>
+  <si>
+    <t>If the driver press the '+' key on the keyboard, the HMI module should send an ACC change value signal (ID 31) with the value of 1 (INCREMENT)</t>
+  </si>
+  <si>
+    <t>If the driver press the '-' (minus) key on the keyboard, the HMI module should send an ACC change value signal (ID 31) with the value of 0 (DECREMENT)</t>
+  </si>
+  <si>
+    <t>UNIDEB_105</t>
+  </si>
+  <si>
+    <t>UNIDEB_106</t>
+  </si>
+  <si>
+    <t>UNIDEB_107</t>
+  </si>
+  <si>
+    <t>Team3</t>
+  </si>
+  <si>
+    <t>Team4</t>
+  </si>
+  <si>
+    <t>Team5</t>
+  </si>
+  <si>
+    <t>Sprint4</t>
+  </si>
+  <si>
+    <t>Sprint5</t>
+  </si>
+  <si>
+    <t>Sprint6</t>
   </si>
 </sst>
 </file>
@@ -990,9 +1026,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1032,6 +1065,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1453,2765 +1489,2843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK130"/>
+  <dimension ref="A1:AMK133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H115" sqref="H115:H130"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H130" sqref="H130:H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="98.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="98.28515625" style="2" customWidth="1"/>
+    <col min="10" max="1025" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="G36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="G37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="G38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="G41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="G43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="G44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="D45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="G46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="D47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="2" t="s">
+      <c r="G47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="G48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="G49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="G50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="G51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="G52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="48.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" s="2" t="s">
+      <c r="G53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="143.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="G54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="G55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="G56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="D58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="D65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="14" t="s">
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="2" t="s">
+      <c r="G71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="2" t="s">
+      <c r="G72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="D73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="G73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="D74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="2" t="s">
+      <c r="G74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="G75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" s="2" t="s">
+      <c r="G76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H77" s="2" t="s">
+      <c r="G77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="2" t="s">
+      <c r="G78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H79" s="2" t="s">
+      <c r="G79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="D104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="G104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I105" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="D106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="G106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="D107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H107" s="2" t="s">
+      <c r="G107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="D108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="D109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H109" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="D110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H110" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="D111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H111" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="2" t="s">
+      <c r="D112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F112" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H112" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="D113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="B114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="D114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F114" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G114" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H114" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="D115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="D116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H116" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="B118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F118" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G118" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H118" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="B119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="D120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F120" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="G120" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H120" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" s="2" t="s">
+    <row r="121" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F121" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G121" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H121" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="2" t="s">
+    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F122" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G122" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="H122" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="2" t="s">
+    <row r="123" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F123" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G123" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="H123" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E122" s="2" t="s">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F124" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="G124" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="H124" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E123" s="2" t="s">
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F125" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G125" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="H125" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" s="2" t="s">
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F126" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G126" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="H126" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="2" t="s">
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F127" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G127" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="H127" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E126" s="2" t="s">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F128" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G128" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="H128" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" s="2" t="s">
+    <row r="129" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F129" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G129" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H129" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" s="2" t="s">
+    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F130" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="G130" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="H130" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E129" s="2" t="s">
+    <row r="131" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F131" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="G131" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F132" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>209</v>
+      <c r="G132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
